--- a/maps/VA/VA20C_energies.xlsx
+++ b/maps/VA/VA20C_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/VA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9EEF70-EBE8-DE4C-9D57-66AD985B639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD020EE5-B1A0-954E-8889-FD8C9678F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{3AA487DD-9F1B-D54E-8AD9-04156FCD2CE9}"/>
+    <workbookView xWindow="23560" yWindow="11360" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{3AA487DD-9F1B-D54E-8AD9-04156FCD2CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -870,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BC8E47-2147-154F-8080-BEA4681DE9BE}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1091,11 +1091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73042C94-E80D-B847-B8D9-AAA5E9795EE8}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
